--- a/SmartCage – 반려동물 임시 보관 IoT 시스템/DB 스키마/스키마 v1.0.0.xlsx
+++ b/SmartCage – 반려동물 임시 보관 IoT 시스템/DB 스키마/스키마 v1.0.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INTEL 29\Desktop\SmartCage – 반려동물 임시 보관 IoT 시스템\DB 스키마\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INTEL 29\Documents\GitHub\Smart_Cage\SmartCage – 반려동물 임시 보관 IoT 시스템\DB 스키마\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89E8CF0-D4F6-4FF2-8FFC-3A51103B9583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190241B0-5BF0-4FB8-BEB8-6A9E08295404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="16035" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Cage 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cage 할당 유저 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>integer (PK)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,6 +76,86 @@
   </si>
   <si>
     <t>user ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char (PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cage 대여/할당 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rental_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer (FK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char (FK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime (nullable)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여 종료 시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여 시작 시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 사용 중 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -420,6 +496,9 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -439,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -458,7 +537,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -474,24 +556,109 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
+      <c r="C18" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/SmartCage – 반려동물 임시 보관 IoT 시스템/DB 스키마/스키마 v1.0.0.xlsx
+++ b/SmartCage – 반려동물 임시 보관 IoT 시스템/DB 스키마/스키마 v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INTEL 29\Documents\GitHub\Smart_Cage\SmartCage – 반려동물 임시 보관 IoT 시스템\DB 스키마\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190241B0-5BF0-4FB8-BEB8-6A9E08295404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921227C8-CBA8-4154-A920-829E453625D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Cage 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,82 @@
   </si>
   <si>
     <t>현재 사용 중 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CageLiveStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기기 상태 최신값 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부 LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>window_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창문 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 상태 변경 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CageSensorLiveStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_check_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humidity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illumination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>측정 시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도 (섭씨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>습도 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,6 +737,129 @@
         <v>15</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SmartCage – 반려동물 임시 보관 IoT 시스템/DB 스키마/스키마 v1.0.0.xlsx
+++ b/SmartCage – 반려동물 임시 보관 IoT 시스템/DB 스키마/스키마 v1.0.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INTEL 29\Documents\GitHub\Smart_Cage\SmartCage – 반려동물 임시 보관 IoT 시스템\DB 스키마\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921227C8-CBA8-4154-A920-829E453625D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F451D73-E3D4-4783-AF6E-BD07204ECA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
